--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDE2EBF-720E-478A-8878-E7C33D69985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1DD603-D3DF-49CC-B043-EEA4F0768079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
-    <t>стр. 50-80</t>
-  </si>
-  <si>
     <t>губ</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>население на 1 января 1906</t>
+  </si>
+  <si>
+    <t>стр. 31-62</t>
   </si>
 </sst>
 </file>
@@ -784,25 +784,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
@@ -833,59 +833,59 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>171.5</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>499.1</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>984.3</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>791.1</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>739.2</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>696.6</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>691.4</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1642.4</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1444.8</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1614.7</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>785.8</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1412.8</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1242.4000000000001</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1133.5999999999999</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>528.4</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1830.6</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>745.6</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>680.8</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>259.39999999999998</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1266.2</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>481.1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1163.0999999999999</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>914.7</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2">
         <v>691.9</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>787.6</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>700.8</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>177.4</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>836</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>177.4</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>739</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1590.8</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>1651</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2">
         <v>1495.1</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>575.1</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>902.1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1531.8</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2">
         <v>357.8</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>1224.4000000000001</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>803.6</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>772</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>718.5</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>1439.7</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>864</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>687.8</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1248.8</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>1288.5999999999999</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2">
         <v>1193</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
         <v>1242.5</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>180.6</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
         <v>440.1</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2">
         <v>46880</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
         <v>4274.3</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2">
         <v>663</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>422.7</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>416.6</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>293</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>604.1</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>536.1</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>257</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>415</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>275.10000000000002</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>391.7</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>4849</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>382.7</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2">
         <v>59.1</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>287.5</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>477.2</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2">
         <v>44.3</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
         <v>167.1</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
         <v>1062.4000000000001</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
         <v>450.3</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
         <v>489.8</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2">
         <v>55.2</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>462.2</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>453.8</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>26</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>431.4</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>3144.2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>60.1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>303.2</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>354.7</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>253.4</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>114.9</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>11</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>774.9</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>1121.0999999999999</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>150.9</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>4225.1000000000004</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>366.2</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>185.7</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>510</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>385.9</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>554</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>824</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>255.6</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>350.6</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>793.1</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2">
         <v>1241.4000000000001</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2">
         <v>199.7</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2">
         <v>223.5</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2">
         <v>201.2</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
         <v>152.1</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>99.1</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2">
         <v>92.1</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2">
         <v>137.30000000000001</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2">
         <v>136.4</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2">
         <v>64614</v>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1DD603-D3DF-49CC-B043-EEA4F0768079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774D06-64A9-48D0-8CAF-5ED422EB8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86580" yWindow="45" windowWidth="25620" windowHeight="22740" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1021,14 +1021,14 @@
         <v>173.2</v>
       </c>
       <c r="H4" s="2">
-        <v>163.61000000000001</v>
+        <v>163.6</v>
       </c>
       <c r="I4" s="2">
         <v>336.8</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="R4" s="4">
         <f t="shared" si="4"/>
-        <v>9.9999999997635314E-3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="5"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774D06-64A9-48D0-8CAF-5ED422EB8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0103B-E411-484C-B412-192CE891F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -815,7 +815,7 @@
   <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2508,13 +2508,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>177.4</v>
+        <v>1020.4</v>
       </c>
       <c r="C30" s="2">
-        <v>197.4</v>
+        <v>1086</v>
       </c>
       <c r="D30" s="2">
-        <v>374.8</v>
+        <v>2106.4</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
@@ -2522,13 +2522,13 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>12.7</v>
+        <v>133.1</v>
       </c>
       <c r="H30" s="2">
-        <v>13.6</v>
+        <v>126.2</v>
       </c>
       <c r="I30" s="2">
-        <v>26.3</v>
+        <v>259.3</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
@@ -2536,13 +2536,13 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2">
-        <v>190.1</v>
+        <v>1153.5</v>
       </c>
       <c r="M30" s="2">
-        <v>211</v>
+        <v>1212.2</v>
       </c>
       <c r="N30" s="2">
-        <v>401.1</v>
+        <v>2365.6999999999998</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="2"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1906.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0103B-E411-484C-B412-192CE891F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F1FA4-935F-431C-B4C7-F6CB6EB4EB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -814,8 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
